--- a/Mathematica Works/ress.xlsx
+++ b/Mathematica Works/ress.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Science Project\Desktop\AA_Bar\Project-Gorny\Mathematica Works\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kigor\Documents\GitHub\Project-Gorny\Mathematica Works\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF997B8-DDB4-47D1-A665-9B422328D843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D395ABA6-AEAB-47C4-A05E-BD783E63E55B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ress" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="196">
   <si>
     <t>0,0,0</t>
   </si>
@@ -473,12 +474,416 @@
       <t xml:space="preserve"> fluorite</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>The structure of cuprite - Cu</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">O </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>26.02.2020    The shell radius r=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>√A;    A=x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OCu</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - coordination</t>
+    </r>
+  </si>
+  <si>
+    <t>CuO2 - coordination</t>
+  </si>
+  <si>
+    <t>1,1,3</t>
+  </si>
+  <si>
+    <t>0,0,4</t>
+  </si>
+  <si>
+    <t>1,3,3</t>
+  </si>
+  <si>
+    <t>1,1,5</t>
+  </si>
+  <si>
+    <t>0,4,4</t>
+  </si>
+  <si>
+    <t>1,3,5</t>
+  </si>
+  <si>
+    <t>3,3,5</t>
+  </si>
+  <si>
+    <t>2,2,6</t>
+  </si>
+  <si>
+    <t>1,1,7</t>
+  </si>
+  <si>
+    <t>1,5,5</t>
+  </si>
+  <si>
+    <t>1,3,7</t>
+  </si>
+  <si>
+    <t>3,5,5</t>
+  </si>
+  <si>
+    <t>0,0,8</t>
+  </si>
+  <si>
+    <t>3,3,7</t>
+  </si>
+  <si>
+    <t>1,5,7</t>
+  </si>
+  <si>
+    <t>2,6,6</t>
+  </si>
+  <si>
+    <t>0,4,8</t>
+  </si>
+  <si>
+    <t>1,1,9</t>
+  </si>
+  <si>
+    <t>3,5,7</t>
+  </si>
+  <si>
+    <t>1,3,9</t>
+  </si>
+  <si>
+    <t>4,4,8</t>
+  </si>
+  <si>
+    <t>1,7,7</t>
+  </si>
+  <si>
+    <t>3,3,9</t>
+  </si>
+  <si>
+    <t>5,5,7</t>
+  </si>
+  <si>
+    <t>1,5,9</t>
+  </si>
+  <si>
+    <t>3,7,7</t>
+  </si>
+  <si>
+    <t>2,2,10</t>
+  </si>
+  <si>
+    <t>3,5,9</t>
+  </si>
+  <si>
+    <t>1,1,11</t>
+  </si>
+  <si>
+    <t>5,7,7</t>
+  </si>
+  <si>
+    <t>0,8,8</t>
+  </si>
+  <si>
+    <t>1,3,11</t>
+  </si>
+  <si>
+    <t>1,7,9</t>
+  </si>
+  <si>
+    <t>5,5,9</t>
+  </si>
+  <si>
+    <t>3,3,11</t>
+  </si>
+  <si>
+    <t>3,7,9</t>
+  </si>
+  <si>
+    <t>2,6,10</t>
+  </si>
+  <si>
+    <t>0,0,12</t>
+  </si>
+  <si>
+    <t>4,8,8</t>
+  </si>
+  <si>
+    <t>1,5,11</t>
+  </si>
+  <si>
+    <t>3,5,11</t>
+  </si>
+  <si>
+    <t>5,7,9</t>
+  </si>
+  <si>
+    <t>0,4,12</t>
+  </si>
+  <si>
+    <t>1,9,9</t>
+  </si>
+  <si>
+    <t>1,1,13</t>
+  </si>
+  <si>
+    <t>1,7,11</t>
+  </si>
+  <si>
+    <t>3,9,9</t>
+  </si>
+  <si>
+    <t>5,5,11</t>
+  </si>
+  <si>
+    <t>6,6,10</t>
+  </si>
+  <si>
+    <t>4,4,12</t>
+  </si>
+  <si>
+    <t>1,3,13</t>
+  </si>
+  <si>
+    <t>3,7,11</t>
+  </si>
+  <si>
+    <t>7,7,9</t>
+  </si>
+  <si>
+    <t>3,3,13</t>
+  </si>
+  <si>
+    <t>5,9,9</t>
+  </si>
+  <si>
+    <t>1,5,13</t>
+  </si>
+  <si>
+    <t>5,7,11</t>
+  </si>
+  <si>
+    <t>1,9,11</t>
+  </si>
+  <si>
+    <t>3,5,13</t>
+  </si>
+  <si>
+    <t>2,2,14</t>
+  </si>
+  <si>
+    <t>2,10,10</t>
+  </si>
+  <si>
+    <t>0,8,12</t>
+  </si>
+  <si>
+    <t>3,9,11</t>
+  </si>
+  <si>
+    <t>7,9,9</t>
+  </si>
+  <si>
+    <t>1,7,13</t>
+  </si>
+  <si>
+    <t>5,5,13</t>
+  </si>
+  <si>
+    <t>7,7,11</t>
+  </si>
+  <si>
+    <t>4,8,12</t>
+  </si>
+  <si>
+    <t>1,1,15</t>
+  </si>
+  <si>
+    <t>3,7,13</t>
+  </si>
+  <si>
+    <t>5,9,11</t>
+  </si>
+  <si>
+    <t>1,3,15</t>
+  </si>
+  <si>
+    <t>0,2,2</t>
+  </si>
+  <si>
+    <t>2,2,4</t>
+  </si>
+  <si>
+    <t>0,2,6</t>
+  </si>
+  <si>
+    <t>2,2,8</t>
+  </si>
+  <si>
+    <t>2,4,6</t>
+  </si>
+  <si>
+    <t>0,6,6</t>
+  </si>
+  <si>
+    <t>2,6,8</t>
+  </si>
+  <si>
+    <t>4,6,6</t>
+  </si>
+  <si>
+    <t>0,2,10</t>
+  </si>
+  <si>
+    <t>2,2,12</t>
+  </si>
+  <si>
+    <t>2,4,10</t>
+  </si>
+  <si>
+    <t>6,6,8</t>
+  </si>
+  <si>
+    <t>0,6,10</t>
+  </si>
+  <si>
+    <t>2,6,12</t>
+  </si>
+  <si>
+    <t>2,8,10</t>
+  </si>
+  <si>
+    <t>4,6,10</t>
+  </si>
+  <si>
+    <t>6,6,12</t>
+  </si>
+  <si>
+    <t>6,8,10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,6 +1086,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -863,7 +1283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1152,6 +1572,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1197,7 +1701,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1244,13 +1748,34 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1613,8 +2138,8 @@
   </sheetPr>
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,50 +2148,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
     </row>
     <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
@@ -1678,36 +2203,36 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3621,4 +4146,2376 @@
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D96E060-E546-40FA-82EF-B42B5DE2EEA1}">
+  <dimension ref="A1:S54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection sqref="A1:S54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+    </row>
+    <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>0</v>
+      </c>
+      <c r="B7" s="24">
+        <v>0</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
+        <v>29</v>
+      </c>
+      <c r="G7" s="24">
+        <v>139</v>
+      </c>
+      <c r="H7" s="24">
+        <v>12</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="23">
+        <v>0</v>
+      </c>
+      <c r="L7" s="24">
+        <v>0</v>
+      </c>
+      <c r="M7" s="24">
+        <v>1</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="23">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>108</v>
+      </c>
+      <c r="R7" s="24">
+        <v>8</v>
+      </c>
+      <c r="S7" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>29</v>
+      </c>
+      <c r="G8" s="2">
+        <v>139</v>
+      </c>
+      <c r="H8" s="2">
+        <v>24</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>108</v>
+      </c>
+      <c r="R8" s="2">
+        <v>4</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="9">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2">
+        <v>140</v>
+      </c>
+      <c r="H9" s="2">
+        <v>48</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>8</v>
+      </c>
+      <c r="M9" s="2">
+        <v>8</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="P9" s="9">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>108</v>
+      </c>
+      <c r="R9" s="2">
+        <v>4</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="9">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2">
+        <v>144</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="9">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2">
+        <v>11</v>
+      </c>
+      <c r="M10" s="2">
+        <v>6</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="9">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>108</v>
+      </c>
+      <c r="R10" s="2">
+        <v>8</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="9">
+        <v>31</v>
+      </c>
+      <c r="G11" s="2">
+        <v>144</v>
+      </c>
+      <c r="H11" s="2">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="9">
+        <v>4</v>
+      </c>
+      <c r="L11" s="2">
+        <v>12</v>
+      </c>
+      <c r="M11" s="2">
+        <v>4</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="P11" s="9">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>108</v>
+      </c>
+      <c r="R11" s="2">
+        <v>4</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="9">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2">
+        <v>147</v>
+      </c>
+      <c r="H12" s="2">
+        <v>24</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="9">
+        <v>4</v>
+      </c>
+      <c r="L12" s="2">
+        <v>12</v>
+      </c>
+      <c r="M12" s="2">
+        <v>4</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="P12" s="9">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>108</v>
+      </c>
+      <c r="R12" s="2">
+        <v>4</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="9">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2">
+        <v>147</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="9">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>16</v>
+      </c>
+      <c r="M13" s="2">
+        <v>6</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" s="9">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>115</v>
+      </c>
+      <c r="R13" s="2">
+        <v>12</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2">
+        <v>155</v>
+      </c>
+      <c r="H14" s="2">
+        <v>24</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="9">
+        <v>6</v>
+      </c>
+      <c r="L14" s="2">
+        <v>19</v>
+      </c>
+      <c r="M14" s="2">
+        <v>6</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" s="9">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>120</v>
+      </c>
+      <c r="R14" s="2">
+        <v>32</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="9">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2">
+        <v>155</v>
+      </c>
+      <c r="H15" s="2">
+        <v>24</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="9">
+        <v>7</v>
+      </c>
+      <c r="L15" s="2">
+        <v>24</v>
+      </c>
+      <c r="M15" s="2">
+        <v>16</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="P15" s="9">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>123</v>
+      </c>
+      <c r="R15" s="2">
+        <v>6</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2">
+        <v>24</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="9">
+        <v>34</v>
+      </c>
+      <c r="G16" s="2">
+        <v>160</v>
+      </c>
+      <c r="H16" s="2">
+        <v>24</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="9">
+        <v>8</v>
+      </c>
+      <c r="L16" s="2">
+        <v>27</v>
+      </c>
+      <c r="M16" s="2">
+        <v>6</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="9">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>123</v>
+      </c>
+      <c r="R16" s="2">
+        <v>6</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="9">
+        <v>35</v>
+      </c>
+      <c r="G17" s="2">
+        <v>163</v>
+      </c>
+      <c r="H17" s="2">
+        <v>12</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="9">
+        <v>8</v>
+      </c>
+      <c r="L17" s="2">
+        <v>27</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="9">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>128</v>
+      </c>
+      <c r="R17" s="2">
+        <v>12</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2">
+        <v>24</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="9">
+        <v>36</v>
+      </c>
+      <c r="G18" s="2">
+        <v>171</v>
+      </c>
+      <c r="H18" s="2">
+        <v>12</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="9">
+        <v>9</v>
+      </c>
+      <c r="L18" s="2">
+        <v>32</v>
+      </c>
+      <c r="M18" s="2">
+        <v>12</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="9">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>131</v>
+      </c>
+      <c r="R18" s="2">
+        <v>12</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="9">
+        <v>36</v>
+      </c>
+      <c r="G19" s="2">
+        <v>171</v>
+      </c>
+      <c r="H19" s="2">
+        <v>24</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="9">
+        <v>10</v>
+      </c>
+      <c r="L19" s="2">
+        <v>35</v>
+      </c>
+      <c r="M19" s="2">
+        <v>12</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="9">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>131</v>
+      </c>
+      <c r="R19" s="2">
+        <v>12</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2">
+        <v>12</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="9">
+        <v>36</v>
+      </c>
+      <c r="G20" s="2">
+        <v>171</v>
+      </c>
+      <c r="H20" s="2">
+        <v>12</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" s="9">
+        <v>11</v>
+      </c>
+      <c r="L20" s="2">
+        <v>40</v>
+      </c>
+      <c r="M20" s="2">
+        <v>16</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="P20" s="9">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>131</v>
+      </c>
+      <c r="R20" s="2">
+        <v>6</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2">
+        <v>12</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="9">
+        <v>36</v>
+      </c>
+      <c r="G21" s="2">
+        <v>171</v>
+      </c>
+      <c r="H21" s="2">
+        <v>12</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" s="9">
+        <v>12</v>
+      </c>
+      <c r="L21" s="2">
+        <v>43</v>
+      </c>
+      <c r="M21" s="2">
+        <v>6</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="9">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>136</v>
+      </c>
+      <c r="R21" s="2">
+        <v>16</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2">
+        <v>24</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="9">
+        <v>37</v>
+      </c>
+      <c r="G22" s="2">
+        <v>172</v>
+      </c>
+      <c r="H22" s="2">
+        <v>24</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="9">
+        <v>13</v>
+      </c>
+      <c r="L22" s="2">
+        <v>44</v>
+      </c>
+      <c r="M22" s="2">
+        <v>8</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="P22" s="9">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>136</v>
+      </c>
+      <c r="R22" s="2">
+        <v>16</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2">
+        <v>12</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="9">
+        <v>38</v>
+      </c>
+      <c r="G23" s="2">
+        <v>176</v>
+      </c>
+      <c r="H23" s="2">
+        <v>24</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="9">
+        <v>13</v>
+      </c>
+      <c r="L23" s="2">
+        <v>44</v>
+      </c>
+      <c r="M23" s="2">
+        <v>4</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="P23" s="9">
+        <v>38</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>139</v>
+      </c>
+      <c r="R23" s="2">
+        <v>6</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2">
+        <v>64</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="9">
+        <v>39</v>
+      </c>
+      <c r="G24" s="2">
+        <v>179</v>
+      </c>
+      <c r="H24" s="2">
+        <v>24</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="9">
+        <v>13</v>
+      </c>
+      <c r="L24" s="2">
+        <v>44</v>
+      </c>
+      <c r="M24" s="2">
+        <v>4</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="P24" s="9">
+        <v>38</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>139</v>
+      </c>
+      <c r="R24" s="2">
+        <v>12</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2">
+        <v>67</v>
+      </c>
+      <c r="C25" s="2">
+        <v>12</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="9">
+        <v>39</v>
+      </c>
+      <c r="G25" s="2">
+        <v>179</v>
+      </c>
+      <c r="H25" s="2">
+        <v>24</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="9">
+        <v>13</v>
+      </c>
+      <c r="L25" s="2">
+        <v>44</v>
+      </c>
+      <c r="M25" s="2">
+        <v>8</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="9">
+        <v>39</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>140</v>
+      </c>
+      <c r="R25" s="2">
+        <v>8</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2">
+        <v>75</v>
+      </c>
+      <c r="C26" s="2">
+        <v>24</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="9">
+        <v>39</v>
+      </c>
+      <c r="G26" s="2">
+        <v>179</v>
+      </c>
+      <c r="H26" s="2">
+        <v>12</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="9">
+        <v>14</v>
+      </c>
+      <c r="L26" s="2">
+        <v>48</v>
+      </c>
+      <c r="M26" s="2">
+        <v>8</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="9">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>140</v>
+      </c>
+      <c r="R26" s="2">
+        <v>8</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2">
+        <v>75</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="9">
+        <v>40</v>
+      </c>
+      <c r="G27" s="2">
+        <v>187</v>
+      </c>
+      <c r="H27" s="2">
+        <v>12</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K27" s="9">
+        <v>15</v>
+      </c>
+      <c r="L27" s="2">
+        <v>51</v>
+      </c>
+      <c r="M27" s="2">
+        <v>6</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P27" s="9">
+        <v>39</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>140</v>
+      </c>
+      <c r="R27" s="2">
+        <v>8</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2">
+        <v>76</v>
+      </c>
+      <c r="C28" s="2">
+        <v>24</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="9">
+        <v>40</v>
+      </c>
+      <c r="G28" s="2">
+        <v>187</v>
+      </c>
+      <c r="H28" s="2">
+        <v>12</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="9">
+        <v>15</v>
+      </c>
+      <c r="L28" s="2">
+        <v>51</v>
+      </c>
+      <c r="M28" s="2">
+        <v>6</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" s="9">
+        <v>39</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>140</v>
+      </c>
+      <c r="R28" s="2">
+        <v>8</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2">
+        <v>80</v>
+      </c>
+      <c r="C29" s="2">
+        <v>24</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="9">
+        <v>41</v>
+      </c>
+      <c r="G29" s="2">
+        <v>192</v>
+      </c>
+      <c r="H29" s="2">
+        <v>8</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="9">
+        <v>16</v>
+      </c>
+      <c r="L29" s="2">
+        <v>56</v>
+      </c>
+      <c r="M29" s="2">
+        <v>32</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="P29" s="9">
+        <v>39</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>140</v>
+      </c>
+      <c r="R29" s="2">
+        <v>8</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>19</v>
+      </c>
+      <c r="B30" s="2">
+        <v>83</v>
+      </c>
+      <c r="C30" s="2">
+        <v>12</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="9">
+        <v>42</v>
+      </c>
+      <c r="G30" s="2">
+        <v>195</v>
+      </c>
+      <c r="H30" s="2">
+        <v>24</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="9">
+        <v>17</v>
+      </c>
+      <c r="L30" s="2">
+        <v>59</v>
+      </c>
+      <c r="M30" s="2">
+        <v>12</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="P30" s="9">
+        <v>39</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>140</v>
+      </c>
+      <c r="R30" s="2">
+        <v>8</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>19</v>
+      </c>
+      <c r="B31" s="2">
+        <v>83</v>
+      </c>
+      <c r="C31" s="2">
+        <v>24</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="9">
+        <v>42</v>
+      </c>
+      <c r="G31" s="2">
+        <v>195</v>
+      </c>
+      <c r="H31" s="2">
+        <v>24</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="K31" s="9">
+        <v>17</v>
+      </c>
+      <c r="L31" s="2">
+        <v>59</v>
+      </c>
+      <c r="M31" s="2">
+        <v>6</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="P31" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>144</v>
+      </c>
+      <c r="R31" s="2">
+        <v>6</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2">
+        <v>91</v>
+      </c>
+      <c r="C32" s="2">
+        <v>24</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="9">
+        <v>43</v>
+      </c>
+      <c r="G32" s="2">
+        <v>203</v>
+      </c>
+      <c r="H32" s="2">
+        <v>24</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K32" s="9">
+        <v>18</v>
+      </c>
+      <c r="L32" s="2">
+        <v>64</v>
+      </c>
+      <c r="M32" s="2">
+        <v>6</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P32" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>144</v>
+      </c>
+      <c r="R32" s="2">
+        <v>24</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>21</v>
+      </c>
+      <c r="B33" s="2">
+        <v>96</v>
+      </c>
+      <c r="C33" s="2">
+        <v>24</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="9">
+        <v>43</v>
+      </c>
+      <c r="G33" s="2">
+        <v>203</v>
+      </c>
+      <c r="H33" s="2">
+        <v>24</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" s="9">
+        <v>19</v>
+      </c>
+      <c r="L33" s="2">
+        <v>67</v>
+      </c>
+      <c r="M33" s="2">
+        <v>6</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P33" s="9">
+        <v>41</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>147</v>
+      </c>
+      <c r="R33" s="2">
+        <v>12</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>22</v>
+      </c>
+      <c r="B34" s="2">
+        <v>99</v>
+      </c>
+      <c r="C34" s="2">
+        <v>12</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="9">
+        <v>44</v>
+      </c>
+      <c r="G34" s="2">
+        <v>204</v>
+      </c>
+      <c r="H34" s="2">
+        <v>24</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K34" s="9">
+        <v>20</v>
+      </c>
+      <c r="L34" s="2">
+        <v>72</v>
+      </c>
+      <c r="M34" s="2">
+        <v>8</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="P34" s="9">
+        <v>41</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>147</v>
+      </c>
+      <c r="R34" s="2">
+        <v>2</v>
+      </c>
+      <c r="S34" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>22</v>
+      </c>
+      <c r="B35" s="2">
+        <v>99</v>
+      </c>
+      <c r="C35" s="2">
+        <v>12</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="9">
+        <v>44</v>
+      </c>
+      <c r="G35" s="2">
+        <v>204</v>
+      </c>
+      <c r="H35" s="2">
+        <v>24</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K35" s="9">
+        <v>20</v>
+      </c>
+      <c r="L35" s="2">
+        <v>72</v>
+      </c>
+      <c r="M35" s="2">
+        <v>16</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="P35" s="9">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>152</v>
+      </c>
+      <c r="R35" s="2">
+        <v>16</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>22</v>
+      </c>
+      <c r="B36" s="2">
+        <v>99</v>
+      </c>
+      <c r="C36" s="2">
+        <v>12</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="9">
+        <v>45</v>
+      </c>
+      <c r="G36" s="2">
+        <v>208</v>
+      </c>
+      <c r="H36" s="2">
+        <v>24</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="K36" s="9">
+        <v>21</v>
+      </c>
+      <c r="L36" s="2">
+        <v>75</v>
+      </c>
+      <c r="M36" s="2">
+        <v>12</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P36" s="9">
+        <v>42</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>152</v>
+      </c>
+      <c r="R36" s="2">
+        <v>32</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>23</v>
+      </c>
+      <c r="B37" s="2">
+        <v>107</v>
+      </c>
+      <c r="C37" s="2">
+        <v>24</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="9">
+        <v>46</v>
+      </c>
+      <c r="G37" s="2">
+        <v>211</v>
+      </c>
+      <c r="H37" s="2">
+        <v>24</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K37" s="9">
+        <v>21</v>
+      </c>
+      <c r="L37" s="2">
+        <v>75</v>
+      </c>
+      <c r="M37" s="2">
+        <v>2</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="P37" s="9">
+        <v>43</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>155</v>
+      </c>
+      <c r="R37" s="2">
+        <v>12</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>23</v>
+      </c>
+      <c r="B38" s="2">
+        <v>107</v>
+      </c>
+      <c r="C38" s="2">
+        <v>12</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="9">
+        <v>46</v>
+      </c>
+      <c r="G38" s="2">
+        <v>211</v>
+      </c>
+      <c r="H38" s="2">
+        <v>12</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" s="9">
+        <v>22</v>
+      </c>
+      <c r="L38" s="2">
+        <v>76</v>
+      </c>
+      <c r="M38" s="2">
+        <v>4</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="P38" s="9">
+        <v>43</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>155</v>
+      </c>
+      <c r="R38" s="2">
+        <v>12</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2">
+        <v>108</v>
+      </c>
+      <c r="C39" s="2">
+        <v>24</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="9">
+        <v>47</v>
+      </c>
+      <c r="G39" s="2">
+        <v>219</v>
+      </c>
+      <c r="H39" s="2">
+        <v>24</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K39" s="9">
+        <v>22</v>
+      </c>
+      <c r="L39" s="2">
+        <v>76</v>
+      </c>
+      <c r="M39" s="2">
+        <v>8</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="P39" s="9">
+        <v>44</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>160</v>
+      </c>
+      <c r="R39" s="2">
+        <v>24</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>24</v>
+      </c>
+      <c r="B40" s="2">
+        <v>108</v>
+      </c>
+      <c r="C40" s="2">
+        <v>8</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="9">
+        <v>47</v>
+      </c>
+      <c r="G40" s="2">
+        <v>219</v>
+      </c>
+      <c r="H40" s="2">
+        <v>12</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="9">
+        <v>22</v>
+      </c>
+      <c r="L40" s="2">
+        <v>76</v>
+      </c>
+      <c r="M40" s="2">
+        <v>8</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="P40" s="9">
+        <v>45</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>163</v>
+      </c>
+      <c r="R40" s="2">
+        <v>6</v>
+      </c>
+      <c r="S40" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>25</v>
+      </c>
+      <c r="B41" s="2">
+        <v>115</v>
+      </c>
+      <c r="C41" s="2">
+        <v>24</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="9">
+        <v>47</v>
+      </c>
+      <c r="G41" s="2">
+        <v>219</v>
+      </c>
+      <c r="H41" s="2">
+        <v>12</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K41" s="9">
+        <v>22</v>
+      </c>
+      <c r="L41" s="2">
+        <v>76</v>
+      </c>
+      <c r="M41" s="2">
+        <v>4</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="P41" s="9">
+        <v>46</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>168</v>
+      </c>
+      <c r="R41" s="2">
+        <v>32</v>
+      </c>
+      <c r="S41" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>26</v>
+      </c>
+      <c r="B42" s="2">
+        <v>123</v>
+      </c>
+      <c r="C42" s="2">
+        <v>12</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" s="9">
+        <v>48</v>
+      </c>
+      <c r="G42" s="2">
+        <v>224</v>
+      </c>
+      <c r="H42" s="2">
+        <v>48</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="K42" s="9">
+        <v>23</v>
+      </c>
+      <c r="L42" s="2">
+        <v>80</v>
+      </c>
+      <c r="M42" s="2">
+        <v>24</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P42" s="9">
+        <v>47</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>171</v>
+      </c>
+      <c r="R42" s="2">
+        <v>6</v>
+      </c>
+      <c r="S42" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>26</v>
+      </c>
+      <c r="B43" s="2">
+        <v>123</v>
+      </c>
+      <c r="C43" s="2">
+        <v>12</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="9">
+        <v>49</v>
+      </c>
+      <c r="G43" s="2">
+        <v>227</v>
+      </c>
+      <c r="H43" s="2">
+        <v>12</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K43" s="9">
+        <v>24</v>
+      </c>
+      <c r="L43" s="2">
+        <v>83</v>
+      </c>
+      <c r="M43" s="2">
+        <v>6</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="P43" s="9">
+        <v>47</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>171</v>
+      </c>
+      <c r="R43" s="2">
+        <v>12</v>
+      </c>
+      <c r="S43" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>27</v>
+      </c>
+      <c r="B44" s="2">
+        <v>128</v>
+      </c>
+      <c r="C44" s="2">
+        <v>12</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="9">
+        <v>49</v>
+      </c>
+      <c r="G44" s="2">
+        <v>227</v>
+      </c>
+      <c r="H44" s="2">
+        <v>24</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="K44" s="9">
+        <v>24</v>
+      </c>
+      <c r="L44" s="2">
+        <v>83</v>
+      </c>
+      <c r="M44" s="2">
+        <v>12</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="P44" s="9">
+        <v>47</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>171</v>
+      </c>
+      <c r="R44" s="2">
+        <v>6</v>
+      </c>
+      <c r="S44" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>28</v>
+      </c>
+      <c r="B45" s="2">
+        <v>131</v>
+      </c>
+      <c r="C45" s="2">
+        <v>24</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="9">
+        <v>49</v>
+      </c>
+      <c r="G45" s="2">
+        <v>227</v>
+      </c>
+      <c r="H45" s="2">
+        <v>24</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K45" s="9">
+        <v>25</v>
+      </c>
+      <c r="L45" s="2">
+        <v>88</v>
+      </c>
+      <c r="M45" s="2">
+        <v>16</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="P45" s="9">
+        <v>47</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>171</v>
+      </c>
+      <c r="R45" s="2">
+        <v>6</v>
+      </c>
+      <c r="S45" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>28</v>
+      </c>
+      <c r="B46" s="2">
+        <v>131</v>
+      </c>
+      <c r="C46" s="2">
+        <v>24</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="11">
+        <v>50</v>
+      </c>
+      <c r="G46" s="12">
+        <v>235</v>
+      </c>
+      <c r="H46" s="12">
+        <v>24</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="K46" s="9">
+        <v>26</v>
+      </c>
+      <c r="L46" s="2">
+        <v>91</v>
+      </c>
+      <c r="M46" s="2">
+        <v>12</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P46" s="9">
+        <v>48</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>172</v>
+      </c>
+      <c r="R46" s="2">
+        <v>8</v>
+      </c>
+      <c r="S46" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>28</v>
+      </c>
+      <c r="B47" s="12">
+        <v>131</v>
+      </c>
+      <c r="C47" s="12">
+        <v>12</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K47" s="9">
+        <v>27</v>
+      </c>
+      <c r="L47" s="2">
+        <v>96</v>
+      </c>
+      <c r="M47" s="2">
+        <v>24</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P47" s="9">
+        <v>48</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>172</v>
+      </c>
+      <c r="R47" s="2">
+        <v>4</v>
+      </c>
+      <c r="S47" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K48" s="9">
+        <v>28</v>
+      </c>
+      <c r="L48" s="2">
+        <v>99</v>
+      </c>
+      <c r="M48" s="2">
+        <v>6</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="P48" s="9">
+        <v>48</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>172</v>
+      </c>
+      <c r="R48" s="2">
+        <v>4</v>
+      </c>
+      <c r="S48" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K49" s="9">
+        <v>28</v>
+      </c>
+      <c r="L49" s="2">
+        <v>99</v>
+      </c>
+      <c r="M49" s="2">
+        <v>6</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="P49" s="9">
+        <v>48</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>172</v>
+      </c>
+      <c r="R49" s="2">
+        <v>8</v>
+      </c>
+      <c r="S49" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K50" s="9">
+        <v>28</v>
+      </c>
+      <c r="L50" s="2">
+        <v>99</v>
+      </c>
+      <c r="M50" s="2">
+        <v>6</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="P50" s="9">
+        <v>49</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>176</v>
+      </c>
+      <c r="R50" s="2">
+        <v>24</v>
+      </c>
+      <c r="S50" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K51" s="9">
+        <v>29</v>
+      </c>
+      <c r="L51" s="2">
+        <v>104</v>
+      </c>
+      <c r="M51" s="2">
+        <v>16</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="P51" s="9">
+        <v>50</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>179</v>
+      </c>
+      <c r="R51" s="2">
+        <v>12</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K52" s="9">
+        <v>29</v>
+      </c>
+      <c r="L52" s="2">
+        <v>104</v>
+      </c>
+      <c r="M52" s="2">
+        <v>32</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="P52" s="9">
+        <v>50</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>179</v>
+      </c>
+      <c r="R52" s="2">
+        <v>12</v>
+      </c>
+      <c r="S52" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K53" s="9">
+        <v>30</v>
+      </c>
+      <c r="L53" s="2">
+        <v>107</v>
+      </c>
+      <c r="M53" s="2">
+        <v>12</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="P53" s="11">
+        <v>50</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>179</v>
+      </c>
+      <c r="R53" s="12">
+        <v>6</v>
+      </c>
+      <c r="S53" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K54" s="11">
+        <v>30</v>
+      </c>
+      <c r="L54" s="12">
+        <v>107</v>
+      </c>
+      <c r="M54" s="12">
+        <v>6</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K4:S4"/>
+  </mergeCells>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Mathematica Works/ress.xlsx
+++ b/Mathematica Works/ress.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kigor\Documents\GitHub\Project-Gorny\Mathematica Works\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Science Project\Desktop\AA_Bar\Project-Gorny\Mathematica Works\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D395ABA6-AEAB-47C4-A05E-BD783E63E55B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA9883E-6F2C-408C-97AD-8451B0ACF1D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,9 +606,6 @@
     </r>
   </si>
   <si>
-    <t>CuO2 - coordination</t>
-  </si>
-  <si>
     <t>1,1,3</t>
   </si>
   <si>
@@ -877,6 +874,34 @@
   </si>
   <si>
     <t>6,8,10</t>
+  </si>
+  <si>
+    <r>
+      <t>CuO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - coordination</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1751,15 +1776,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1776,6 +1792,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2148,50 +2173,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
     </row>
     <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
@@ -2210,29 +2235,29 @@
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4150,10 +4175,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D96E060-E546-40FA-82EF-B42B5DE2EEA1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection sqref="A1:S54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4162,50 +4190,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
     </row>
     <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
@@ -4224,29 +4252,29 @@
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
+      <c r="K4" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4262,91 +4290,91 @@
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="R6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="20">
         <v>0</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="21">
         <v>0</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="21">
         <v>1</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="20">
         <v>29</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="21">
         <v>139</v>
       </c>
-      <c r="H7" s="24">
-        <v>12</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="K7" s="23">
+      <c r="H7" s="21">
+        <v>12</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="20">
         <v>0</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="21">
         <v>0</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="21">
         <v>1</v>
       </c>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="20">
         <v>31</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="21">
         <v>108</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="21">
         <v>8</v>
       </c>
-      <c r="S7" s="25" t="s">
-        <v>186</v>
+      <c r="S7" s="22" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -4372,7 +4400,7 @@
         <v>24</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K8" s="9">
         <v>1</v>
@@ -4396,7 +4424,7 @@
         <v>4</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -4410,7 +4438,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="9">
         <v>30</v>
@@ -4422,7 +4450,7 @@
         <v>48</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K9" s="9">
         <v>2</v>
@@ -4434,7 +4462,7 @@
         <v>8</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P9" s="9">
         <v>31</v>
@@ -4446,7 +4474,7 @@
         <v>4</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -4472,7 +4500,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K10" s="9">
         <v>3</v>
@@ -4484,7 +4512,7 @@
         <v>6</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P10" s="9">
         <v>31</v>
@@ -4496,7 +4524,7 @@
         <v>8</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -4510,7 +4538,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" s="9">
         <v>31</v>
@@ -4522,7 +4550,7 @@
         <v>24</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K11" s="9">
         <v>4</v>
@@ -4534,7 +4562,7 @@
         <v>4</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P11" s="9">
         <v>31</v>
@@ -4546,7 +4574,7 @@
         <v>4</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -4560,7 +4588,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="9">
         <v>32</v>
@@ -4572,7 +4600,7 @@
         <v>24</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K12" s="9">
         <v>4</v>
@@ -4584,7 +4612,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P12" s="9">
         <v>31</v>
@@ -4596,7 +4624,7 @@
         <v>4</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -4610,7 +4638,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="9">
         <v>32</v>
@@ -4634,7 +4662,7 @@
         <v>6</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P13" s="9">
         <v>32</v>
@@ -4646,7 +4674,7 @@
         <v>12</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -4672,7 +4700,7 @@
         <v>24</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K14" s="9">
         <v>6</v>
@@ -4684,7 +4712,7 @@
         <v>6</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P14" s="9">
         <v>33</v>
@@ -4696,7 +4724,7 @@
         <v>32</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -4710,7 +4738,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="9">
         <v>33</v>
@@ -4722,7 +4750,7 @@
         <v>24</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K15" s="9">
         <v>7</v>
@@ -4734,7 +4762,7 @@
         <v>16</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P15" s="9">
         <v>34</v>
@@ -4746,7 +4774,7 @@
         <v>6</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -4760,7 +4788,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" s="9">
         <v>34</v>
@@ -4772,7 +4800,7 @@
         <v>24</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K16" s="9">
         <v>8</v>
@@ -4784,7 +4812,7 @@
         <v>6</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P16" s="9">
         <v>34</v>
@@ -4796,7 +4824,7 @@
         <v>6</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -4810,7 +4838,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" s="9">
         <v>35</v>
@@ -4822,7 +4850,7 @@
         <v>12</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K17" s="9">
         <v>8</v>
@@ -4846,7 +4874,7 @@
         <v>12</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -4860,7 +4888,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" s="9">
         <v>36</v>
@@ -4872,7 +4900,7 @@
         <v>12</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K18" s="9">
         <v>9</v>
@@ -4884,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P18" s="9">
         <v>36</v>
@@ -4896,7 +4924,7 @@
         <v>12</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -4922,7 +4950,7 @@
         <v>24</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K19" s="9">
         <v>10</v>
@@ -4934,7 +4962,7 @@
         <v>12</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P19" s="9">
         <v>36</v>
@@ -4946,7 +4974,7 @@
         <v>12</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -4960,7 +4988,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="9">
         <v>36</v>
@@ -4972,7 +5000,7 @@
         <v>12</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K20" s="9">
         <v>11</v>
@@ -4984,7 +5012,7 @@
         <v>16</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P20" s="9">
         <v>36</v>
@@ -4996,7 +5024,7 @@
         <v>6</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -5010,7 +5038,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" s="9">
         <v>36</v>
@@ -5022,7 +5050,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K21" s="9">
         <v>12</v>
@@ -5034,7 +5062,7 @@
         <v>6</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P21" s="9">
         <v>37</v>
@@ -5046,7 +5074,7 @@
         <v>16</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -5060,7 +5088,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" s="9">
         <v>37</v>
@@ -5072,7 +5100,7 @@
         <v>24</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K22" s="9">
         <v>13</v>
@@ -5084,7 +5112,7 @@
         <v>8</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P22" s="9">
         <v>37</v>
@@ -5096,7 +5124,7 @@
         <v>16</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -5110,7 +5138,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" s="9">
         <v>38</v>
@@ -5122,7 +5150,7 @@
         <v>24</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K23" s="9">
         <v>13</v>
@@ -5134,7 +5162,7 @@
         <v>4</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P23" s="9">
         <v>38</v>
@@ -5146,7 +5174,7 @@
         <v>6</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -5160,7 +5188,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24" s="9">
         <v>39</v>
@@ -5172,7 +5200,7 @@
         <v>24</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K24" s="9">
         <v>13</v>
@@ -5184,7 +5212,7 @@
         <v>4</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P24" s="9">
         <v>38</v>
@@ -5196,7 +5224,7 @@
         <v>12</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -5210,7 +5238,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="9">
         <v>39</v>
@@ -5222,7 +5250,7 @@
         <v>24</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K25" s="9">
         <v>13</v>
@@ -5234,7 +5262,7 @@
         <v>8</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P25" s="9">
         <v>39</v>
@@ -5246,7 +5274,7 @@
         <v>8</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -5260,7 +5288,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26" s="9">
         <v>39</v>
@@ -5272,7 +5300,7 @@
         <v>12</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K26" s="9">
         <v>14</v>
@@ -5296,7 +5324,7 @@
         <v>8</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -5322,7 +5350,7 @@
         <v>12</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K27" s="9">
         <v>15</v>
@@ -5334,7 +5362,7 @@
         <v>6</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P27" s="9">
         <v>39</v>
@@ -5346,7 +5374,7 @@
         <v>8</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -5360,7 +5388,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" s="9">
         <v>40</v>
@@ -5372,7 +5400,7 @@
         <v>12</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K28" s="9">
         <v>15</v>
@@ -5384,7 +5412,7 @@
         <v>6</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P28" s="9">
         <v>39</v>
@@ -5396,7 +5424,7 @@
         <v>8</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -5410,7 +5438,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" s="9">
         <v>41</v>
@@ -5434,7 +5462,7 @@
         <v>32</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P29" s="9">
         <v>39</v>
@@ -5446,7 +5474,7 @@
         <v>8</v>
       </c>
       <c r="S29" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -5460,7 +5488,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" s="9">
         <v>42</v>
@@ -5472,7 +5500,7 @@
         <v>24</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K30" s="9">
         <v>17</v>
@@ -5484,7 +5512,7 @@
         <v>12</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P30" s="9">
         <v>39</v>
@@ -5496,7 +5524,7 @@
         <v>8</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -5510,7 +5538,7 @@
         <v>24</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31" s="9">
         <v>42</v>
@@ -5522,7 +5550,7 @@
         <v>24</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K31" s="9">
         <v>17</v>
@@ -5534,7 +5562,7 @@
         <v>6</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P31" s="9">
         <v>40</v>
@@ -5546,7 +5574,7 @@
         <v>6</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -5560,7 +5588,7 @@
         <v>24</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" s="9">
         <v>43</v>
@@ -5572,7 +5600,7 @@
         <v>24</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K32" s="9">
         <v>18</v>
@@ -5584,7 +5612,7 @@
         <v>6</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P32" s="9">
         <v>40</v>
@@ -5596,7 +5624,7 @@
         <v>24</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -5610,7 +5638,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" s="9">
         <v>43</v>
@@ -5622,7 +5650,7 @@
         <v>24</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K33" s="9">
         <v>19</v>
@@ -5634,7 +5662,7 @@
         <v>6</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P33" s="9">
         <v>41</v>
@@ -5646,7 +5674,7 @@
         <v>12</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -5660,7 +5688,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F34" s="9">
         <v>44</v>
@@ -5672,7 +5700,7 @@
         <v>24</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K34" s="9">
         <v>20</v>
@@ -5684,7 +5712,7 @@
         <v>8</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P34" s="9">
         <v>41</v>
@@ -5710,7 +5738,7 @@
         <v>12</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35" s="9">
         <v>44</v>
@@ -5722,7 +5750,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K35" s="9">
         <v>20</v>
@@ -5734,7 +5762,7 @@
         <v>16</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P35" s="9">
         <v>42</v>
@@ -5746,7 +5774,7 @@
         <v>16</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -5760,7 +5788,7 @@
         <v>12</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" s="9">
         <v>45</v>
@@ -5772,7 +5800,7 @@
         <v>24</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K36" s="9">
         <v>21</v>
@@ -5784,7 +5812,7 @@
         <v>12</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P36" s="9">
         <v>42</v>
@@ -5796,7 +5824,7 @@
         <v>32</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -5810,7 +5838,7 @@
         <v>24</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" s="9">
         <v>46</v>
@@ -5822,7 +5850,7 @@
         <v>24</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K37" s="9">
         <v>21</v>
@@ -5846,7 +5874,7 @@
         <v>12</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -5860,7 +5888,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F38" s="9">
         <v>46</v>
@@ -5872,7 +5900,7 @@
         <v>12</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K38" s="9">
         <v>22</v>
@@ -5884,7 +5912,7 @@
         <v>4</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P38" s="9">
         <v>43</v>
@@ -5896,7 +5924,7 @@
         <v>12</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -5910,7 +5938,7 @@
         <v>24</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F39" s="9">
         <v>47</v>
@@ -5922,7 +5950,7 @@
         <v>24</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K39" s="9">
         <v>22</v>
@@ -5934,7 +5962,7 @@
         <v>8</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P39" s="9">
         <v>44</v>
@@ -5946,7 +5974,7 @@
         <v>24</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -5972,7 +6000,7 @@
         <v>12</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K40" s="9">
         <v>22</v>
@@ -5984,7 +6012,7 @@
         <v>8</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P40" s="9">
         <v>45</v>
@@ -5996,7 +6024,7 @@
         <v>6</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -6010,7 +6038,7 @@
         <v>24</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F41" s="9">
         <v>47</v>
@@ -6022,7 +6050,7 @@
         <v>12</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K41" s="9">
         <v>22</v>
@@ -6034,7 +6062,7 @@
         <v>4</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P41" s="9">
         <v>46</v>
@@ -6046,7 +6074,7 @@
         <v>32</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -6060,7 +6088,7 @@
         <v>12</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F42" s="9">
         <v>48</v>
@@ -6072,7 +6100,7 @@
         <v>48</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K42" s="9">
         <v>23</v>
@@ -6084,7 +6112,7 @@
         <v>24</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P42" s="9">
         <v>47</v>
@@ -6096,7 +6124,7 @@
         <v>6</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -6110,7 +6138,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F43" s="9">
         <v>49</v>
@@ -6122,7 +6150,7 @@
         <v>12</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K43" s="9">
         <v>24</v>
@@ -6134,7 +6162,7 @@
         <v>6</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P43" s="9">
         <v>47</v>
@@ -6146,7 +6174,7 @@
         <v>12</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -6160,7 +6188,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F44" s="9">
         <v>49</v>
@@ -6172,7 +6200,7 @@
         <v>24</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K44" s="9">
         <v>24</v>
@@ -6184,7 +6212,7 @@
         <v>12</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P44" s="9">
         <v>47</v>
@@ -6196,7 +6224,7 @@
         <v>6</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -6210,7 +6238,7 @@
         <v>24</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F45" s="9">
         <v>49</v>
@@ -6222,7 +6250,7 @@
         <v>24</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K45" s="9">
         <v>25</v>
@@ -6234,7 +6262,7 @@
         <v>16</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P45" s="9">
         <v>47</v>
@@ -6246,7 +6274,7 @@
         <v>6</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6260,7 +6288,7 @@
         <v>24</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F46" s="11">
         <v>50</v>
@@ -6272,7 +6300,7 @@
         <v>24</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K46" s="9">
         <v>26</v>
@@ -6284,7 +6312,7 @@
         <v>12</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P46" s="9">
         <v>48</v>
@@ -6296,7 +6324,7 @@
         <v>8</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6310,7 +6338,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K47" s="9">
         <v>27</v>
@@ -6322,7 +6350,7 @@
         <v>24</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P47" s="9">
         <v>48</v>
@@ -6334,7 +6362,7 @@
         <v>4</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -6348,7 +6376,7 @@
         <v>6</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P48" s="9">
         <v>48</v>
@@ -6360,7 +6388,7 @@
         <v>4</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="11:19" x14ac:dyDescent="0.25">
@@ -6374,7 +6402,7 @@
         <v>6</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P49" s="9">
         <v>48</v>
@@ -6386,7 +6414,7 @@
         <v>8</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="11:19" x14ac:dyDescent="0.25">
@@ -6400,7 +6428,7 @@
         <v>6</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P50" s="9">
         <v>49</v>
@@ -6412,7 +6440,7 @@
         <v>24</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="11:19" x14ac:dyDescent="0.25">
@@ -6426,7 +6454,7 @@
         <v>16</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P51" s="9">
         <v>50</v>
@@ -6438,7 +6466,7 @@
         <v>12</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="11:19" x14ac:dyDescent="0.25">
@@ -6452,7 +6480,7 @@
         <v>32</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P52" s="9">
         <v>50</v>
@@ -6464,7 +6492,7 @@
         <v>12</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6478,7 +6506,7 @@
         <v>12</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P53" s="11">
         <v>50</v>
@@ -6490,7 +6518,7 @@
         <v>6</v>
       </c>
       <c r="S53" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="11:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6504,7 +6532,7 @@
         <v>6</v>
       </c>
       <c r="N54" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -6515,7 +6543,8 @@
     <mergeCell ref="K4:S4"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>